--- a/ejemplos/modelos_masa/Populus_NE_Espana_IFN_todo.xlsx
+++ b/ejemplos/modelos_masa/Populus_NE_Espana_IFN_todo.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -371,65 +371,70 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Provincia</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>ID_especie_principal</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Anho</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Edad</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Densidad</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Area_basimetrica</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Altura_dominante</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Longitud</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Latitud</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2001_2020</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2021_2040</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2041_2060</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2061_2080</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2081_2100</t>
         </is>
@@ -447,42 +452,45 @@
         </is>
       </c>
       <c r="C2">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="D2">
+        <v>258</v>
+      </c>
+      <c r="E2">
         <v>2004</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>8</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>31.83098861837907</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.8649</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>11.5</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>-0.5473164397275606</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>42.66845761679623</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>51.25671511628276</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>34.51445518856436</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>33.17354469874893</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>31.66549549585081</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>30.0926243567753</v>
       </c>
     </row>
@@ -498,42 +506,45 @@
         </is>
       </c>
       <c r="C3">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="D3">
+        <v>258</v>
+      </c>
+      <c r="E3">
         <v>2004</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>25</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>284.0738895364674</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>40.60519677777778</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>35.79288398235632</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.1967974574962279</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>42.04808249154399</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>19.779746040245</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>18.67835888501133</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>18.0100871370023</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>17.28631211781104</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>16.31578945662286</v>
       </c>
     </row>
@@ -549,42 +560,45 @@
         </is>
       </c>
       <c r="C4">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="D4">
+        <v>258</v>
+      </c>
+      <c r="E4">
         <v>2004</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>14</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>268.7950149996454</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>18.72653333333333</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>28.192801438155</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.1256729529536974</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>41.74914639292928</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>14.91616017271352</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>14.65930028285591</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>14.04790422170013</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>13.4953872320941</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>12.72570931231036</v>
       </c>
     </row>
@@ -600,42 +614,45 @@
         </is>
       </c>
       <c r="C5">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="D5">
+        <v>258</v>
+      </c>
+      <c r="E5">
         <v>2004</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>15</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>219.2801438155003</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>10.01715625</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>24.41956189341984</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.3264618716101112</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>41.5468645213975</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>13.62722844052989</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>13.12272177155532</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>12.63719966100443</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>12.12367541451993</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>11.39283677888898</v>
       </c>
     </row>
@@ -651,42 +668,45 @@
         </is>
       </c>
       <c r="C6">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="D6">
+        <v>258</v>
+      </c>
+      <c r="E6">
         <v>2004</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>10</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>63.66197723675813</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1.26790625</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>13.25</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-0.8914767077660695</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>42.59426921346761</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>29.72553464300929</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>27.35562314215457</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>26.33278406039753</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>25.17779578123428</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>24.0453685495962</v>
       </c>
     </row>
@@ -702,42 +722,45 @@
         </is>
       </c>
       <c r="C7">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="D7">
+        <v>258</v>
+      </c>
+      <c r="E7">
         <v>2004</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>31</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>350.1408748021697</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>19.89452013888889</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>19.55133037762888</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-0.3195716040272271</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>42.57330572457831</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>33.91344395409183</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>29.46259232691735</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>28.32221657672688</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>27.04901637318567</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>25.76315355404946</v>
       </c>
     </row>
@@ -753,42 +776,45 @@
         </is>
       </c>
       <c r="C8">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="D8">
+        <v>258</v>
+      </c>
+      <c r="E8">
         <v>2004</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>7</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>31.83098861837907</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0.5148062500000001</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>11</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.1772687789426792</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>41.66937629815313</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>14.70717527344484</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>14.0140630532711</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>13.49642001701387</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>12.99284984316622</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>12.16969009981408</v>
       </c>
     </row>
@@ -804,42 +830,45 @@
         </is>
       </c>
       <c r="C9">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="D9">
+        <v>258</v>
+      </c>
+      <c r="E9">
         <v>2004</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>15</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>304.1627801311778</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>18.12093611111111</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>25.41471060526129</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.2399493222479053</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>41.60785970218083</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>14.36908014999179</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>13.54691084383987</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>13.04736375281736</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>12.55427648217208</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>11.77578092131021</v>
       </c>
     </row>
@@ -855,42 +884,45 @@
         </is>
       </c>
       <c r="C10">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="D10">
+        <v>258</v>
+      </c>
+      <c r="E10">
         <v>2004</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>20</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>151.6569768840105</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>14.28306511111111</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>28.29587491441935</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.3522509516312438</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>41.50243180049507</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>13.5257849542154</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>13.30700291610261</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>12.74966613429792</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>12.20043570449838</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>11.50334238162871</v>
       </c>
     </row>
@@ -906,42 +938,45 @@
         </is>
       </c>
       <c r="C11">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="D11">
+        <v>258</v>
+      </c>
+      <c r="E11">
         <v>2004</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>15</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>261.721461973339</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>13.78887222222222</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>24.91471060526129</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-0.1505361379009097</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>41.70631445625403</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>15.70771682569059</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>15.22058816969872</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>14.52480577855838</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>13.87850468835931</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>13.12955291385727</v>
       </c>
     </row>
@@ -957,42 +992,45 @@
         </is>
       </c>
       <c r="C12">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="D12">
+        <v>258</v>
+      </c>
+      <c r="E12">
         <v>2004</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>12</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>297.0892271048713</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>8.490900694444443</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>19.63974979045771</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-0.1352889826909658</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>41.70598009882722</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>15.70771682569059</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>14.91276405047005</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>14.2968050988649</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>13.65625905985814</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>12.87855001614873</v>
       </c>
     </row>
@@ -1008,42 +1046,45 @@
         </is>
       </c>
       <c r="C13">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="D13">
+        <v>258</v>
+      </c>
+      <c r="E13">
         <v>2004</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>25</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>226.9195810839112</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>29.65343311111111</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>36.34114565378771</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.1919228462587869</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>42.04355069031337</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>19.779746040245</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>18.67835888501133</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>18.0100871370023</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>17.28631211781104</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>16.31578945662286</v>
       </c>
     </row>
@@ -1059,42 +1100,45 @@
         </is>
       </c>
       <c r="C14">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="D14">
+        <v>258</v>
+      </c>
+      <c r="E14">
         <v>2004</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>20</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>236.539613199688</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>25.18654933333333</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>28.45553681489415</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.1701952893093536</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>41.67730728233744</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>14.70717527344484</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>14.03787410484665</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>13.52011910974256</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>13.01647473010478</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>12.19352071433227</v>
       </c>
     </row>
@@ -1110,42 +1154,45 @@
         </is>
       </c>
       <c r="C15">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="D15">
+        <v>258</v>
+      </c>
+      <c r="E15">
         <v>2004</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>20</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>240.5008028944196</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>18.84442777777778</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>28.12206590789195</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.2026054185507064</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>41.62929056637715</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>14.24869567465031</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>13.67458875783232</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>13.17073177549992</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>12.67384340484116</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>11.85649198548006</v>
       </c>
     </row>
@@ -1161,42 +1208,45 @@
         </is>
       </c>
       <c r="C16">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="D16">
+        <v>258</v>
+      </c>
+      <c r="E16">
         <v>2004</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>12</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>254.6479089470325</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>10.17037013888889</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>19.71220659078919</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.1962389314829258</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>41.64462512922667</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>14.24869567465031</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>13.74675432268473</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>13.23989856067639</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>12.74026539030171</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>11.91950914266916</v>
       </c>
     </row>
@@ -1212,42 +1262,45 @@
         </is>
       </c>
       <c r="C17">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="D17">
+        <v>258</v>
+      </c>
+      <c r="E17">
         <v>2004</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>25</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>262.0044040943912</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>41.02415911111111</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>42.1952241009425</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>0.2019961483304027</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>41.63643525970321</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>14.24869567465031</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>13.78341228401757</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>13.27568206086144</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>12.77526619046752</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>11.95376052437562</v>
       </c>
     </row>
@@ -1263,42 +1316,45 @@
         </is>
       </c>
       <c r="C18">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="D18">
+        <v>258</v>
+      </c>
+      <c r="E18">
         <v>2004</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>12</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>205.1330377628873</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>9.303913888888889</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>20.56103295394597</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0.2366944443701751</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>41.61102352687192</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>14.36908014999179</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>13.57938080353413</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>13.07921374067267</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>12.58557900655128</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>11.80664486352037</v>
       </c>
     </row>
@@ -1314,42 +1370,45 @@
         </is>
       </c>
       <c r="C19">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="D19">
+        <v>258</v>
+      </c>
+      <c r="E19">
         <v>2004</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>20</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>268.7950149996454</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>20.554525</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>27.69765272631355</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0.2980469849964857</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>41.56421165470263</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>13.62722844052989</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>13.22203679773067</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>12.69897735825677</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>12.21932115558645</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>11.48700464171411</v>
       </c>
     </row>
@@ -1365,42 +1424,45 @@
         </is>
       </c>
       <c r="C20">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="D20">
+        <v>258</v>
+      </c>
+      <c r="E20">
         <v>2004</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>12</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>332.4569922364036</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>13.07576111111111</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>20.9050080289442</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.3475344376028047</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>41.51231969218182</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>13.5257849542154</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>13.20600269414945</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>12.6521546390521</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>12.10610225669186</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>11.41234921471587</v>
       </c>
     </row>
